--- a/report_ca_nhan/CẦN THƠ/NV-39 La Thị Ngọc Hà My  7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-39 La Thị Ngọc Hà My  7-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>425000</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="29">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>425000</v>
+        <v>495000</v>
       </c>
     </row>
   </sheetData>
